--- a/three_points.xlsx
+++ b/three_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\lanzaa\Documents\GitHub\Flask_Sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0084C074-3783-4C57-A928-70BB1E13999F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21D3B0C-E1BE-47A2-8C59-3F147CA538CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{211E3C33-0DCC-4C6C-BBDA-BC6EB54CFCD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{211E3C33-0DCC-4C6C-BBDA-BC6EB54CFCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,53 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="53">
-  <si>
-    <t>Y1Y2 VAV Key</t>
-  </si>
-  <si>
-    <t>Y1Y2 VAV Value</t>
-  </si>
-  <si>
-    <t>Y1Y2 FPB Key</t>
-  </si>
-  <si>
-    <t>Y1Y2 FPB Value</t>
-  </si>
-  <si>
-    <t>Y3Y4 VAV Key</t>
-  </si>
-  <si>
-    <t>Y3Y4 VAV Value</t>
-  </si>
-  <si>
-    <t>Y3Y4 FPB Key</t>
-  </si>
-  <si>
-    <t>Y3Y4 FPB Value</t>
-  </si>
-  <si>
-    <t>Y5Y6 VAV Key</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="73">
   <si>
     <t>Y5Y6 VAV Value</t>
   </si>
   <si>
-    <t>Y5Y6 FPB Key</t>
-  </si>
-  <si>
     <t>Y5Y6 FPB Value</t>
   </si>
   <si>
-    <t>Y7Y8 VAV Key</t>
-  </si>
-  <si>
     <t>Y7Y8 VAV Value</t>
   </si>
   <si>
-    <t>Y7Y8 FPB Key</t>
-  </si>
-  <si>
     <t>Y7Y8 FPB Value</t>
   </si>
   <si>
@@ -112,18 +74,12 @@
     <t>C</t>
   </si>
   <si>
-    <t>Chw Water Valve</t>
-  </si>
-  <si>
     <t>Chw Beam Active</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Chw Beam Valve</t>
-  </si>
-  <si>
     <t>Dual Duct 1/2</t>
   </si>
   <si>
@@ -136,15 +92,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>Htg Coil</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Electric 2 Stage</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -194,13 +144,121 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>ZTEN Key</t>
+  </si>
+  <si>
+    <t>Y1Y2 WSHP Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 WSHP Value</t>
+  </si>
+  <si>
+    <t>Y5Y6 WSHP Value</t>
+  </si>
+  <si>
+    <t>Y7Y8 WSHP Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 FCU Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 FCU Value</t>
+  </si>
+  <si>
+    <t>Y5Y6 FCU Value</t>
+  </si>
+  <si>
+    <t>Y7Y8 FCU Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 LAB Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 LAB Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 FH Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 FH Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>Y5Y6 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>Y7Y8 CENFUNC Value</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Htg Water Coil </t>
+  </si>
+  <si>
+    <t>Htg Coil 2Stg</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Outside Damper</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Heat Pump Clg</t>
+  </si>
+  <si>
+    <t>Heat Pump Htg</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Y1Y2 T18 FPB Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 T18 FPB Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 T12 FPB Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 T12 VAV Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 T18 VAV Value</t>
+  </si>
+  <si>
+    <t>Y1Y2 T18 VAV Value</t>
+  </si>
+  <si>
+    <t>Y3Y4 T12 VAV Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +266,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +285,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,12 +331,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,980 +674,2008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E1770F-416B-4B61-80C5-23A12BC6E60F}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
+      <c r="W9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
